--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_31.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2367327.475354383</v>
+        <v>2471507.109805455</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283173</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -662,7 +664,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -677,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>23.81802663387301</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>53.55611046890996</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734093895</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -823,16 +825,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>109.9022384814637</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,19 +873,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>148.8403989153116</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,13 +898,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>282.3692011035861</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -914,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>88.01624809068248</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -1054,25 +1056,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>128.8975571953335</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>192.9358339830523</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>156.5239610141558</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1151,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>294.8980762824329</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1291,13 +1293,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>103.4013282087038</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1306,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,10 +1350,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>37.59617708813193</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1367,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1464,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1528,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>127.9967681169583</v>
       </c>
       <c r="T13" t="n">
-        <v>199.5223428560312</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1622,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1762,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>144.4286493356916</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>6.434538210426277</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1780,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -2002,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2011,13 +2013,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>39.52129633183125</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>13.03790159951636</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2056,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2147,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="21">
@@ -2251,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>93.40444476188422</v>
       </c>
       <c r="H22" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673027</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>108.5813113004299</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2558,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2722,7 +2724,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2773,10 +2775,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.142551756775</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>145.0891016767042</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2852,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2950,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2959,16 +2961,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3007,16 +3009,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>87.20901510506981</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>10.74993283584321</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3044,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3196,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>65.78783178799269</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3205,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>177.696569780335</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3247,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3314,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.10645541514072</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3433,16 +3435,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>35.41770597126713</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3500,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634804</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
-        <v>283.154082144416</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695516</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701347</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174128</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560534</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="E40" t="n">
-        <v>63.1628130171297</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462237</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856539</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012154</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3737,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695523</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3913,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>107.4021082756242</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3952,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>186.9166231085223</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,13 +4137,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4198,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>107.0531836110629</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1261.532988317206</v>
+        <v>1661.795585684488</v>
       </c>
       <c r="C2" t="n">
-        <v>892.5704713767946</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D2" t="n">
-        <v>892.5704713767946</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E2" t="n">
-        <v>892.5704713767946</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912088</v>
@@ -4352,28 +4354,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3301.547208847683</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T2" t="n">
-        <v>3095.569461231905</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U2" t="n">
-        <v>3095.569461231905</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V2" t="n">
-        <v>2764.506573888334</v>
+        <v>2812.000515985501</v>
       </c>
       <c r="W2" t="n">
-        <v>2411.73791861822</v>
+        <v>2812.000515985501</v>
       </c>
       <c r="X2" t="n">
-        <v>2038.27216035714</v>
+        <v>2438.534757724422</v>
       </c>
       <c r="Y2" t="n">
-        <v>1648.132828381328</v>
+        <v>2048.39542574861</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>936.573581468607</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>846.0716871064745</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080125</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986299</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1894.888574395592</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C4" t="n">
-        <v>1725.952391467685</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D4" t="n">
-        <v>1575.83575205535</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E4" t="n">
-        <v>1464.823389952861</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F4" t="n">
-        <v>1464.823389952861</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G4" t="n">
-        <v>1464.823389952861</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
-        <v>1464.823389952861</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952861</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>3325.605821609171</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>3325.605821609171</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T4" t="n">
-        <v>3103.839206178697</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U4" t="n">
-        <v>2814.73633930434</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="V4" t="n">
-        <v>2814.73633930434</v>
+        <v>1465.353638127353</v>
       </c>
       <c r="W4" t="n">
-        <v>2525.319169267379</v>
+        <v>1175.936468090393</v>
       </c>
       <c r="X4" t="n">
-        <v>2297.329618369362</v>
+        <v>1175.936468090393</v>
       </c>
       <c r="Y4" t="n">
-        <v>2076.537039225832</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1844.338003964587</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C5" t="n">
-        <v>1475.375487024175</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>1190.154071768027</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4592,25 +4594,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2994.5429342656</v>
+        <v>3126.409852034566</v>
       </c>
       <c r="W5" t="n">
-        <v>2994.5429342656</v>
+        <v>3126.409852034566</v>
       </c>
       <c r="X5" t="n">
-        <v>2621.07717600452</v>
+        <v>2752.944093773487</v>
       </c>
       <c r="Y5" t="n">
-        <v>2230.937844028708</v>
+        <v>2362.804761797675</v>
       </c>
     </row>
     <row r="6">
@@ -4620,40 +4622,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
@@ -4662,34 +4664,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>677.4387267498528</v>
+        <v>907.8932097569433</v>
       </c>
       <c r="C7" t="n">
-        <v>677.4387267498528</v>
+        <v>738.9570268290364</v>
       </c>
       <c r="D7" t="n">
-        <v>527.322087337517</v>
+        <v>588.8403874167007</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>440.9272938343075</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>294.0373463363971</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
@@ -4747,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1705.527932658019</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U7" t="n">
-        <v>1416.425065783662</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V7" t="n">
-        <v>1161.740577577775</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="W7" t="n">
-        <v>872.3234075408147</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="X7" t="n">
-        <v>677.4387267498528</v>
+        <v>1128.685788900473</v>
       </c>
       <c r="Y7" t="n">
-        <v>677.4387267498528</v>
+        <v>907.8932097569433</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1734.047335491681</v>
+        <v>1959.379186075721</v>
       </c>
       <c r="C8" t="n">
-        <v>1575.942324366272</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D8" t="n">
-        <v>1575.942324366272</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792695</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W8" t="n">
-        <v>2884.252265792695</v>
+        <v>2332.8449443368</v>
       </c>
       <c r="X8" t="n">
-        <v>2510.786507531615</v>
+        <v>1959.379186075721</v>
       </c>
       <c r="Y8" t="n">
-        <v>2120.647175555803</v>
+        <v>1959.379186075721</v>
       </c>
     </row>
     <row r="9">
@@ -4857,10 +4859,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D9" t="n">
         <v>618.1564155387305</v>
@@ -4869,46 +4871,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064628</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
@@ -4936,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>561.3907139632884</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>561.3907139632884</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088492</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088492</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U10" t="n">
-        <v>1638.191681214136</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V10" t="n">
-        <v>1600.215744761477</v>
+        <v>1191.821308835076</v>
       </c>
       <c r="W10" t="n">
-        <v>1310.798574724517</v>
+        <v>1191.821308835076</v>
       </c>
       <c r="X10" t="n">
-        <v>1082.809023826499</v>
+        <v>963.8317579370582</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>743.0391787935281</v>
       </c>
     </row>
     <row r="11">
@@ -5015,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5060,31 +5062,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589157</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143764</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>781.8178837532264</v>
+        <v>634.4644740681603</v>
       </c>
       <c r="C13" t="n">
-        <v>781.8178837532264</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408906</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578602</v>
@@ -5194,16 +5196,16 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5224,25 +5226,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2317.673418815656</v>
       </c>
       <c r="T13" t="n">
-        <v>2245.425363523663</v>
+        <v>2098.071953838597</v>
       </c>
       <c r="U13" t="n">
-        <v>1956.350136867861</v>
+        <v>1808.996727182795</v>
       </c>
       <c r="V13" t="n">
-        <v>1701.665648661974</v>
+        <v>1554.312238976908</v>
       </c>
       <c r="W13" t="n">
-        <v>1412.248478625014</v>
+        <v>1264.895068939947</v>
       </c>
       <c r="X13" t="n">
-        <v>1184.258927726996</v>
+        <v>1036.90551804193</v>
       </c>
       <c r="Y13" t="n">
-        <v>963.4663485834661</v>
+        <v>816.1129388984</v>
       </c>
     </row>
     <row r="14">
@@ -5258,43 +5260,43 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5312,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5349,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>150.8995423128893</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>484.8243144841098</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>980.1499206998684</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1577.52840832642</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2252.221377756499</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>733.4550657171301</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="C16" t="n">
-        <v>564.5188827892232</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="D16" t="n">
-        <v>414.4022433768874</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5464,22 +5466,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5498,34 +5500,34 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5549,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2148.04349261611</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O18" t="n">
-        <v>2148.04349261611</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C19" t="n">
-        <v>513.8536007400712</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D19" t="n">
-        <v>363.7369613277355</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="E19" t="n">
-        <v>215.8238677453423</v>
+        <v>335.9629114732377</v>
       </c>
       <c r="F19" t="n">
-        <v>175.9033664000582</v>
+        <v>189.0729639753273</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000582</v>
+        <v>189.0729639753273</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5704,19 +5706,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="20">
@@ -5735,25 +5737,25 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,37 +5764,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913853</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.167399417937</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N21" t="n">
-        <v>1336.167399417937</v>
+        <v>1318.793114229131</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>1870.702844468418</v>
       </c>
       <c r="P21" t="n">
         <v>2283.159972732779</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>2824.769373306004</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>2655.833190378097</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>2655.833190378097</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>2655.833190378097</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>2655.833190378097</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>2561.485266376194</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218392</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>4507.978318053499</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>4288.37685307644</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>3999.301626420638</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>3744.617138214751</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>3455.199968177791</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>3227.210417279774</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>3006.417838136244</v>
       </c>
     </row>
     <row r="23">
@@ -5975,31 +5977,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6023,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C24" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D24" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F24" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G24" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>2715.159942084666</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>3210.485548300425</v>
       </c>
       <c r="M24" t="n">
-        <v>1307.627092998424</v>
+        <v>3807.864035926977</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>3997.30868757553</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>3997.30868757553</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>4420.931837070598</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="R24" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S24" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T24" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U24" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V24" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W24" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X24" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y24" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>2815.530845237133</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>3990.063098351768</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741512</v>
+        <v>3735.378610145881</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704551</v>
+        <v>3445.96144010892</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806534</v>
+        <v>3217.971889210903</v>
       </c>
       <c r="Y25" t="n">
-        <v>1056.517090583878</v>
+        <v>2997.179310067373</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6218,16 +6220,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,37 +6238,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2252.2213777565</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>951.777212765616</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C28" t="n">
-        <v>782.8410298377091</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D28" t="n">
-        <v>632.7243904253734</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W28" t="n">
-        <v>1582.207807637403</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X28" t="n">
-        <v>1354.218256739386</v>
+        <v>1319.459739407056</v>
       </c>
       <c r="Y28" t="n">
-        <v>1133.425677595856</v>
+        <v>1098.667160263526</v>
       </c>
     </row>
     <row r="29">
@@ -6455,55 +6457,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2252.2213777565</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>680.448174698413</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C31" t="n">
-        <v>680.448174698413</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D31" t="n">
-        <v>530.3315352860773</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E31" t="n">
-        <v>382.4184417036842</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1600.295939607161</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1310.8787695702</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1082.889218672183</v>
+        <v>1133.425677595856</v>
       </c>
       <c r="Y31" t="n">
-        <v>862.0966395286528</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,64 +6688,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>542.9134462654469</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1140.291933891999</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1767.889897446606</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O33" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>870.3164745246296</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C34" t="n">
-        <v>701.3802915967227</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D34" t="n">
-        <v>551.263652184387</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E34" t="n">
-        <v>551.263652184387</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
         <v>484.8112968429802</v>
@@ -6850,58 +6852,58 @@
         <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W34" t="n">
-        <v>1500.747069396417</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X34" t="n">
-        <v>1272.757518498399</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y34" t="n">
-        <v>1051.964939354869</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="35">
@@ -6929,40 +6931,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -6971,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L36" t="n">
-        <v>506.2737913123336</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="M36" t="n">
-        <v>1103.652278938886</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N36" t="n">
-        <v>1731.250242493492</v>
+        <v>1318.793114229131</v>
       </c>
       <c r="O36" t="n">
-        <v>2283.159972732779</v>
+        <v>1870.702844468418</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2294.325993963486</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2527.587654338369</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>642.8692823226941</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C37" t="n">
-        <v>473.9330993947872</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D37" t="n">
-        <v>323.8164599824514</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="E37" t="n">
-        <v>175.9033664000583</v>
+        <v>296.7882229101294</v>
       </c>
       <c r="F37" t="n">
-        <v>175.9033664000583</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="38">
@@ -7148,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168633</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362709</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7202,22 +7204,22 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7254,22 +7256,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>738.7889117913853</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M39" t="n">
-        <v>738.7889117913853</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N39" t="n">
-        <v>1366.386875345992</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O39" t="n">
-        <v>1918.296605585279</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P39" t="n">
-        <v>2341.919755080347</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>695.502065570314</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>695.502065570314</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>695.502065570314</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408901</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429798</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578599</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000581</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854708</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648822</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611861</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138439</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.502065570314</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7391,31 +7393,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
         <v>2206.55866301478</v>
@@ -7436,25 +7438,25 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7488,22 +7490,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L42" t="n">
-        <v>577.3880777468471</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M42" t="n">
-        <v>1174.766565373399</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N42" t="n">
-        <v>1802.364528928006</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O42" t="n">
-        <v>2354.274259167293</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1016.58045691144</v>
+        <v>983.3556038098242</v>
       </c>
       <c r="C43" t="n">
-        <v>847.6442739835331</v>
+        <v>814.4194208819173</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711974</v>
+        <v>664.3027814695815</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888043</v>
+        <v>516.3896878871884</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>369.499740389278</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>202.303641104158</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797189</v>
@@ -7567,52 +7569,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U43" t="n">
-        <v>2191.112710026075</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V43" t="n">
-        <v>1936.428221820188</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W43" t="n">
-        <v>1647.011051783227</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X43" t="n">
-        <v>1419.02150088521</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y43" t="n">
-        <v>1198.22892174168</v>
+        <v>1165.004068640064</v>
       </c>
     </row>
     <row r="44">
@@ -7643,13 +7645,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,13 +7660,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852255</v>
@@ -7728,25 +7730,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1336.167399417937</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>700.7543264856228</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>700.7543264856228</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1103.195370459393</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>882.4027913158625</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -23416,19 +23418,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>53.02951788468627</v>
       </c>
       <c r="T13" t="n">
-        <v>17.88310747125703</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23650,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>35.40333084624569</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>139.9994244361429</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23890,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,13 +23901,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>105.8997516911</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>127.2568112467075</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23944,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24139,10 +24141,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>72.11969353038462</v>
       </c>
       <c r="H22" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24367,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>57.22910392194143</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>110.0033420516649</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24610,7 +24612,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,10 +24663,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0.3804465798160095</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>80.62055371233291</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24895,16 +24897,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>164.9286282187582</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>214.9597225531939</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25084,7 +25086,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>79.63321623493856</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>39.70888054695322</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25135,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>127.7255247667966</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25321,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>110.0033420516641</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393022</v>
       </c>
       <c r="E40" t="n">
-        <v>83.27114962943932</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25801,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>32.89260457059964</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -25840,7 +25842,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>99.26785128072183</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26023,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986277</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229143</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856539</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012154</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>118.6564717779741</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>799776.7579630148</v>
+        <v>799776.7579630147</v>
       </c>
     </row>
     <row r="6">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>799776.7579630148</v>
+        <v>799776.7579630147</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>799776.7579630147</v>
+        <v>799776.7579630148</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>799776.7579630151</v>
+        <v>799776.7579630147</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26316,46 @@
         <v>636307.3716448199</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448193</v>
+        <v>636307.3716448194</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.3716448194</v>
       </c>
       <c r="E2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="F2" t="n">
+        <v>625538.614759755</v>
+      </c>
+      <c r="G2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="H2" t="n">
+        <v>625538.614759755</v>
+      </c>
+      <c r="I2" t="n">
         <v>625538.6147597546</v>
       </c>
-      <c r="F2" t="n">
+      <c r="J2" t="n">
+        <v>625538.614759755</v>
+      </c>
+      <c r="K2" t="n">
+        <v>625538.614759755</v>
+      </c>
+      <c r="L2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="M2" t="n">
         <v>625538.6147597549</v>
       </c>
-      <c r="G2" t="n">
-        <v>625538.6147597547</v>
-      </c>
-      <c r="H2" t="n">
-        <v>625538.6147597546</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="N2" t="n">
+        <v>625538.6147597551</v>
+      </c>
+      <c r="O2" t="n">
         <v>625538.6147597552</v>
       </c>
-      <c r="J2" t="n">
+      <c r="P2" t="n">
         <v>625538.6147597549</v>
-      </c>
-      <c r="K2" t="n">
-        <v>625538.6147597547</v>
-      </c>
-      <c r="L2" t="n">
-        <v>625538.6147597549</v>
-      </c>
-      <c r="M2" t="n">
-        <v>625538.614759755</v>
-      </c>
-      <c r="N2" t="n">
-        <v>625538.6147597547</v>
-      </c>
-      <c r="O2" t="n">
-        <v>625538.6147597551</v>
-      </c>
-      <c r="P2" t="n">
-        <v>625538.6147597551</v>
       </c>
     </row>
     <row r="3">
@@ -26381,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.84288319404</v>
+        <v>92793.84288319405</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.84288319403</v>
+        <v>92793.84288319401</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319404</v>
+        <v>92793.84288319407</v>
       </c>
       <c r="E4" t="n">
-        <v>13606.80811184279</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="F4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="G4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="H4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="I4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="J4" t="n">
         <v>13606.80811184274</v>
@@ -26445,19 +26447,19 @@
         <v>13606.80811184274</v>
       </c>
       <c r="L4" t="n">
-        <v>13606.80811184281</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="M4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184269</v>
       </c>
       <c r="N4" t="n">
-        <v>13606.80811184289</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="O4" t="n">
-        <v>13606.80811184285</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="P4" t="n">
-        <v>13606.80811184299</v>
+        <v>13606.80811184275</v>
       </c>
     </row>
     <row r="5">
@@ -26522,43 +26524,43 @@
         <v>-893165.1575273601</v>
       </c>
       <c r="C6" t="n">
+        <v>435579.5882002321</v>
+      </c>
+      <c r="D6" t="n">
         <v>435579.588200232</v>
       </c>
-      <c r="D6" t="n">
-        <v>435579.5882002326</v>
-      </c>
       <c r="E6" t="n">
-        <v>185396.8150166496</v>
+        <v>185396.8150166498</v>
       </c>
       <c r="F6" t="n">
         <v>510809.2768240051</v>
       </c>
       <c r="G6" t="n">
-        <v>510809.2768240049</v>
+        <v>510809.276824005</v>
       </c>
       <c r="H6" t="n">
+        <v>510809.276824005</v>
+      </c>
+      <c r="I6" t="n">
         <v>510809.2768240048</v>
       </c>
-      <c r="I6" t="n">
-        <v>510809.2768240054</v>
-      </c>
       <c r="J6" t="n">
-        <v>293278.0744267275</v>
+        <v>293278.0744267277</v>
       </c>
       <c r="K6" t="n">
-        <v>510809.2768240049</v>
+        <v>510809.2768240051</v>
       </c>
       <c r="L6" t="n">
         <v>510809.2768240049</v>
       </c>
       <c r="M6" t="n">
-        <v>425754.2488884933</v>
+        <v>425754.2488884931</v>
       </c>
       <c r="N6" t="n">
-        <v>510809.2768240048</v>
+        <v>510809.2768240052</v>
       </c>
       <c r="O6" t="n">
-        <v>510809.2768240051</v>
+        <v>510809.2768240054</v>
       </c>
       <c r="P6" t="n">
         <v>510809.276824005</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26805,22 +26807,22 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26975,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,7 +27384,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27397,7 +27399,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,19 +27429,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>85.36973515430282</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>274.196148001225</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27543,16 +27545,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>36.53172416510544</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27591,19 +27593,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>103.2972444085164</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,13 +27618,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>72.31384051709688</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27634,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
@@ -27673,7 +27675,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>239.7360103794524</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27774,25 +27776,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>37.12825106369473</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>32.77382140598482</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>208.7489307568518</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27871,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>54.34289243498012</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,13 +28013,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>45.2141448095086</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28026,10 +28028,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -28068,10 +28070,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>214.5414662356961</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -30037,7 +30039,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -31513,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,25 +31840,25 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565771</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31865,10 +31867,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236515</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32075,25 +32077,25 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>184.4971006716338</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>437.8531046913764</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,10 +32104,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32312,7 +32314,7 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
@@ -32324,13 +32326,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>543.0832917018711</v>
+        <v>468.3778278510275</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>671.2522281007818</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>550.5977692975237</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>379.4203056753705</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>322.6999460717705</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>165.2255134509763</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>437.853104691376</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>592.1874941409601</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>750.6021172789107</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33740,34 +33742,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>555.1777416630679</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>171.4104471179097</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,37 +33976,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>334.7693860946154</v>
       </c>
       <c r="Q39" t="n">
-        <v>353.2560498238277</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,34 +34201,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>399.9031616963282</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>334.7693860946154</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34235,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34448,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>671.2522281007818</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35486,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121327</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.587454168382</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35723,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>57.65947400496712</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>303.8786972770462</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35883,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
         <v>479.454324036777</v>
@@ -35960,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35972,13 +35974,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>409.1088842875408</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>528.6559836563374</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>416.6233618831934</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,25 +36442,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>237.2862717533522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>191.3582339884371</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>409.1088842875408</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>31.25110603664601</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>453.6331143610859</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>619.2604051955774</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,25 +37390,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>416.6233618831937</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>25.73094315394571</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,25 +37624,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>200.7949786802852</v>
       </c>
       <c r="Q39" t="n">
-        <v>213.2742757378062</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295352</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096351</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902961</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>261.348781916454</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>200.7949786802852</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38098,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>528.6559836563374</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2471507.109805455</v>
+        <v>2467494.499791462</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283181</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9287017.175673174</v>
+        <v>9287017.175673176</v>
       </c>
     </row>
     <row r="11">
@@ -661,10 +661,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>28.90798465780184</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>53.55611046890996</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -819,7 +819,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -831,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>127.4622584264324</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>148.8403989153116</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -955,10 +955,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>88.01624809068248</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>58.92805047991983</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1068,10 +1068,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>128.8975571953335</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -1101,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1141,13 +1141,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>299.4782125119762</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1186,22 +1186,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>294.8980762824329</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1293,25 +1293,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>103.4013282087038</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>77.31354443380461</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1426,7 +1426,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1539,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>127.9967681169583</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1587,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>109.723488288731</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1618,13 +1618,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>144.4286493356916</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>93.40444476188266</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>13.03790159951636</v>
+        <v>1.79977260571659</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444145</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2241,19 +2241,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>93.40444476188422</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>53.08838020946283</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2481,10 +2481,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>35.41770597126747</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>228.9553704673027</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2560,13 +2560,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,16 +2769,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>145.0891016767042</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2854,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2955,10 +2955,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>10.74993283584321</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3085,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881294</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>177.696569780335</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3435,7 +3435,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>35.41770597126713</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>71.79687029691394</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3559,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3912,10 +3912,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>55.52079624060473</v>
       </c>
       <c r="H43" t="n">
-        <v>107.4021082756242</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1661.795585684488</v>
+        <v>921.7704558796247</v>
       </c>
       <c r="C2" t="n">
-        <v>1292.833068744076</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="D2" t="n">
-        <v>934.5673701373257</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V2" t="n">
-        <v>2812.000515985501</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W2" t="n">
-        <v>2812.000515985501</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2438.534757724422</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y2" t="n">
-        <v>2048.39542574861</v>
+        <v>1308.370295943746</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.573581468607</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064745</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080125</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986299</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>994.2880032601528</v>
+        <v>883.7244168749149</v>
       </c>
       <c r="C4" t="n">
-        <v>825.3518203322459</v>
+        <v>883.7244168749149</v>
       </c>
       <c r="D4" t="n">
-        <v>675.2351809199101</v>
+        <v>733.6077774625792</v>
       </c>
       <c r="E4" t="n">
-        <v>527.322087337517</v>
+        <v>585.6946838801861</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4321398396066</v>
+        <v>438.8047363822757</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="T4" t="n">
-        <v>1615.697475415547</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="U4" t="n">
-        <v>1615.697475415547</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="V4" t="n">
-        <v>1465.353638127353</v>
+        <v>1582.779602640133</v>
       </c>
       <c r="W4" t="n">
-        <v>1175.936468090393</v>
+        <v>1293.362432603172</v>
       </c>
       <c r="X4" t="n">
-        <v>1175.936468090393</v>
+        <v>1065.372881705155</v>
       </c>
       <c r="Y4" t="n">
-        <v>1175.936468090393</v>
+        <v>1065.372881705155</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1976.204921733553</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V5" t="n">
-        <v>3126.409852034566</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W5" t="n">
-        <v>3126.409852034566</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X5" t="n">
-        <v>2752.944093773487</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y5" t="n">
-        <v>2362.804761797675</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="6">
@@ -4622,40 +4622,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064544</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
@@ -4664,34 +4664,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>907.8932097569433</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C7" t="n">
-        <v>738.9570268290364</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D7" t="n">
-        <v>588.8403874167007</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E7" t="n">
-        <v>440.9272938343075</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>294.0373463363971</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
         <v>315.6219318279954</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1356.675339798491</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1356.675339798491</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W7" t="n">
-        <v>1356.675339798491</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X7" t="n">
-        <v>1128.685788900473</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y7" t="n">
-        <v>907.8932097569433</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1959.379186075721</v>
+        <v>2232.598233480554</v>
       </c>
       <c r="C8" t="n">
-        <v>1590.416669135309</v>
+        <v>1863.635716540142</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>1505.370017933391</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>1119.581765335147</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>708.5958605455396</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410101</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066531</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="W8" t="n">
-        <v>2332.8449443368</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="X8" t="n">
-        <v>1959.379186075721</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="Y8" t="n">
-        <v>1959.379186075721</v>
+        <v>2619.198073544675</v>
       </c>
     </row>
     <row r="9">
@@ -4859,64 +4859,64 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064628</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>561.3907139632884</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="C10" t="n">
-        <v>561.3907139632884</v>
+        <v>294.7232451715945</v>
       </c>
       <c r="D10" t="n">
-        <v>456.9449278938906</v>
+        <v>144.6066057592588</v>
       </c>
       <c r="E10" t="n">
-        <v>456.9449278938906</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959802</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959802</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
         <v>66.5121164321834</v>
@@ -4989,25 +4989,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1446.505797040963</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V10" t="n">
-        <v>1191.821308835076</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W10" t="n">
-        <v>1191.821308835076</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X10" t="n">
-        <v>963.8317579370582</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y10" t="n">
-        <v>743.0391787935281</v>
+        <v>645.3078929297411</v>
       </c>
     </row>
     <row r="11">
@@ -5029,31 +5029,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5123,19 +5123,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>634.4644740681603</v>
+        <v>724.7519863413023</v>
       </c>
       <c r="C13" t="n">
-        <v>465.5282911402533</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D13" t="n">
-        <v>465.5282911402533</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>317.6151975578602</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5226,25 +5226,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2317.673418815656</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2098.071953838597</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1808.996727182795</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1554.312238976908</v>
+        <v>1644.59975125005</v>
       </c>
       <c r="W13" t="n">
-        <v>1264.895068939947</v>
+        <v>1355.182581213089</v>
       </c>
       <c r="X13" t="n">
-        <v>1036.90551804193</v>
+        <v>1127.193030315072</v>
       </c>
       <c r="Y13" t="n">
-        <v>816.1129388984</v>
+        <v>906.400451171542</v>
       </c>
     </row>
     <row r="14">
@@ -5257,70 +5257,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1700.311647517212</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2252.221377756499</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>549.6145409888043</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>549.6145409888043</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>549.6145409888043</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5500,46 +5500,46 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492578</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1670.092171589158</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>802.9288273958734</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>633.9926444679666</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>483.8760050556308</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>335.9629114732377</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>189.0729639753273</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>189.0729639753273</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.5772922261132</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5731,46 +5731,46 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362694</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852256</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797189</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.793114229131</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2824.769373306004</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="C22" t="n">
-        <v>2655.833190378097</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D22" t="n">
-        <v>2655.833190378097</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E22" t="n">
-        <v>2655.833190378097</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>2655.833190378097</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376194</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218392</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>4507.978318053499</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T22" t="n">
-        <v>4288.37685307644</v>
+        <v>2393.338457106056</v>
       </c>
       <c r="U22" t="n">
-        <v>3999.301626420638</v>
+        <v>2104.263230450254</v>
       </c>
       <c r="V22" t="n">
-        <v>3744.617138214751</v>
+        <v>1849.578742244367</v>
       </c>
       <c r="W22" t="n">
-        <v>3455.199968177791</v>
+        <v>1560.161572207406</v>
       </c>
       <c r="X22" t="n">
-        <v>3227.210417279774</v>
+        <v>1332.172021309389</v>
       </c>
       <c r="Y22" t="n">
-        <v>3006.417838136244</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="23">
@@ -5968,70 +5968,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>2715.159942084666</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>3210.485548300425</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>3807.864035926977</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>3997.30868757553</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>3997.30868757553</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>4420.931837070598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2815.530845237133</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C25" t="n">
-        <v>2646.594662309226</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D25" t="n">
-        <v>2646.594662309226</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E25" t="n">
-        <v>2646.594662309226</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>2646.594662309226</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>2479.398563024106</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.9326143059</v>
+        <v>2411.187623003223</v>
       </c>
       <c r="T25" t="n">
-        <v>4221.331149328841</v>
+        <v>2191.586158026164</v>
       </c>
       <c r="U25" t="n">
-        <v>3990.063098351768</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V25" t="n">
-        <v>3735.378610145881</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W25" t="n">
-        <v>3445.96144010892</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X25" t="n">
-        <v>3217.971889210903</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y25" t="n">
-        <v>2997.179310067373</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="26">
@@ -6314,19 +6314,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.311647517213</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2252.2213777565</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263526</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356194</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797189</v>
@@ -6408,28 +6408,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1755.431557602304</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1466.014387565343</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1319.459739407056</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>1098.667160263526</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332386</v>
@@ -6478,34 +6478,34 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,28 +6536,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.311647517213</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2252.2213777565</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>951.7772127656159</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>782.841029837709</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>632.7243904253733</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6648,25 +6648,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1133.425677595856</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>1133.425677595856</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6688,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332388</v>
@@ -6718,10 +6718,10 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398594</v>
@@ -6733,16 +6733,16 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>803.8641191832228</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>634.9279362553159</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797189</v>
@@ -6882,28 +6882,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.963083580261</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>2267.47159895366</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.396372297858</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1723.711884091971</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1434.29471405501</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1206.305163156993</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>985.5125840134625</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6934,25 +6934,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694708</v>
@@ -6964,7 +6964,7 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797189</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.793114229131</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>763.7541388327652</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C37" t="n">
-        <v>594.8179559048583</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D37" t="n">
-        <v>444.7013164925226</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E37" t="n">
-        <v>296.7882229101294</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F37" t="n">
         <v>261.0127623330919</v>
@@ -7098,49 +7098,49 @@
         <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038374</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797776</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910812</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570821</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279806</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853365</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580264</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580264</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235168</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603202</v>
+        <v>2191.586158026164</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.2863919474</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741513</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W37" t="n">
-        <v>1394.184733704552</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X37" t="n">
-        <v>1166.195182806535</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y37" t="n">
-        <v>945.4026036630049</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="38">
@@ -7156,13 +7156,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,25 +7171,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7250,25 +7250,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1174.766565373399</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>1802.364528928006</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7314,16 +7314,16 @@
         <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7387,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355938</v>
@@ -7435,28 +7435,28 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,28 +7484,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>352.5519571452613</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>983.3556038098242</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C43" t="n">
-        <v>814.4194208819173</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D43" t="n">
-        <v>664.3027814695815</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="E43" t="n">
-        <v>516.3896878871884</v>
+        <v>296.7882229101294</v>
       </c>
       <c r="F43" t="n">
-        <v>369.499740389278</v>
+        <v>149.8982754122191</v>
       </c>
       <c r="G43" t="n">
-        <v>202.303641104158</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782958</v>
@@ -7599,22 +7599,22 @@
         <v>2446.963083580261</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.963083580261</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U43" t="n">
-        <v>2157.887856924459</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V43" t="n">
-        <v>1903.203368718572</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W43" t="n">
-        <v>1613.786198681611</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X43" t="n">
-        <v>1385.796647783594</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y43" t="n">
-        <v>1165.004068640064</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7645,28 +7645,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852255</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7724,25 +7724,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>53.02951788468627</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>142.414155035097</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>35.40333084624569</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23664,16 +23664,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>72.11969353038619</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23895,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>127.2568112467075</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24129,19 +24129,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>72.11969353038462</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24177,10 +24177,10 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>164.3170701178254</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24369,10 +24369,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856552</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>145.6085800303771</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>57.22910392194143</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,16 +24657,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>80.62055371233291</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24843,10 +24843,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>214.9597225531939</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>39.70888054695322</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25323,7 +25323,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>110.0033420516641</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>145.6085800303743</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>65.54986409393022</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856552</v>
@@ -25800,10 +25800,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>110.0033420516641</v>
       </c>
       <c r="H43" t="n">
-        <v>32.89260457059964</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856552</v>
@@ -25839,7 +25839,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>799776.7579630147</v>
+        <v>799776.7579630148</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>799776.7579630148</v>
+        <v>799776.7579630147</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>799776.7579630148</v>
+        <v>799776.7579630147</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>799776.7579630147</v>
+        <v>799776.7579630148</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>799776.7579630148</v>
+        <v>799776.7579630147</v>
       </c>
     </row>
     <row r="16">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448199</v>
+        <v>636307.3716448195</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448194</v>
+        <v>636307.3716448195</v>
       </c>
       <c r="D2" t="n">
         <v>636307.3716448194</v>
       </c>
       <c r="E2" t="n">
+        <v>625538.614759755</v>
+      </c>
+      <c r="F2" t="n">
         <v>625538.6147597549</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>625538.614759755</v>
       </c>
-      <c r="G2" t="n">
-        <v>625538.6147597549</v>
-      </c>
       <c r="H2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="I2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="J2" t="n">
         <v>625538.6147597546</v>
       </c>
-      <c r="J2" t="n">
-        <v>625538.614759755</v>
-      </c>
       <c r="K2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="L2" t="n">
         <v>625538.6147597547</v>
       </c>
       <c r="M2" t="n">
+        <v>625538.614759755</v>
+      </c>
+      <c r="N2" t="n">
         <v>625538.6147597549</v>
       </c>
-      <c r="N2" t="n">
-        <v>625538.6147597551</v>
-      </c>
       <c r="O2" t="n">
-        <v>625538.6147597552</v>
+        <v>625538.614759755</v>
       </c>
       <c r="P2" t="n">
         <v>625538.6147597549</v>
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4.14093847211916e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26380,25 +26380,25 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.394040286412866e-11</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,40 +26417,40 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>92793.84288319414</v>
+      </c>
+      <c r="C4" t="n">
+        <v>92793.84288319407</v>
+      </c>
+      <c r="D4" t="n">
         <v>92793.84288319405</v>
-      </c>
-      <c r="C4" t="n">
-        <v>92793.84288319401</v>
-      </c>
-      <c r="D4" t="n">
-        <v>92793.84288319407</v>
       </c>
       <c r="E4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="F4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="G4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.8081118427</v>
       </c>
       <c r="H4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184271</v>
       </c>
       <c r="I4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="J4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="K4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="L4" t="n">
+        <v>13606.80811184271</v>
+      </c>
+      <c r="M4" t="n">
         <v>13606.80811184275</v>
-      </c>
-      <c r="M4" t="n">
-        <v>13606.80811184269</v>
       </c>
       <c r="N4" t="n">
         <v>13606.80811184275</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-893165.1575273601</v>
+        <v>-893165.15752736</v>
       </c>
       <c r="C6" t="n">
-        <v>435579.5882002321</v>
+        <v>435579.5882002317</v>
       </c>
       <c r="D6" t="n">
         <v>435579.588200232</v>
       </c>
       <c r="E6" t="n">
-        <v>185396.8150166498</v>
+        <v>185049.435762293</v>
       </c>
       <c r="F6" t="n">
-        <v>510809.2768240051</v>
+        <v>510461.897569648</v>
       </c>
       <c r="G6" t="n">
-        <v>510809.276824005</v>
+        <v>510461.8975696479</v>
       </c>
       <c r="H6" t="n">
-        <v>510809.276824005</v>
+        <v>510461.8975696479</v>
       </c>
       <c r="I6" t="n">
-        <v>510809.2768240048</v>
+        <v>510461.8975696479</v>
       </c>
       <c r="J6" t="n">
-        <v>293278.0744267277</v>
+        <v>292930.6951723704</v>
       </c>
       <c r="K6" t="n">
-        <v>510809.2768240051</v>
+        <v>510461.8975696479</v>
       </c>
       <c r="L6" t="n">
-        <v>510809.2768240049</v>
+        <v>510461.8975696479</v>
       </c>
       <c r="M6" t="n">
-        <v>425754.2488884931</v>
+        <v>425406.8696341364</v>
       </c>
       <c r="N6" t="n">
-        <v>510809.2768240052</v>
+        <v>510461.897569648</v>
       </c>
       <c r="O6" t="n">
-        <v>510809.2768240054</v>
+        <v>510461.8975696482</v>
       </c>
       <c r="P6" t="n">
-        <v>510809.276824005</v>
+        <v>510461.897569648</v>
       </c>
     </row>
   </sheetData>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022925</v>
@@ -26801,22 +26801,22 @@
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099649</v>
@@ -26828,7 +26828,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.992550358016083e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26962,7 +26962,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26974,10 +26974,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2.992550358016083e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27381,10 +27381,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>336.3649071132057</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27399,7 +27399,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27438,10 +27438,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>274.196148001225</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27539,7 +27539,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>38.5635498325958</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27590,19 +27590,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>103.2972444085164</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27675,10 +27675,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>239.7360103794524</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>290.3129182374932</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27788,10 +27788,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>37.12825106369473</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27821,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>83.32522828944164</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27861,13 +27861,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>111.4435131414772</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>54.34289243498012</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>45.2141448095086</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>69.12041821276456</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,7 +28061,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -28073,7 +28073,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28818,7 +28818,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-7.897926874522848e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29805,7 +29805,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>-8.242295734817162e-13</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -30036,10 +30036,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T35" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30170,7 +30170,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>3.016490760880212e-12</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31843,7 +31843,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31855,10 +31855,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P12" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32074,19 +32074,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543356</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32095,7 +32095,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>437.8531046913764</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543355</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>468.3778278510275</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32548,19 +32548,19 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071786</v>
@@ -32569,13 +32569,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>550.5977692975237</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32712,7 +32712,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
         <v>867.8464071162563</v>
@@ -32800,19 +32800,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>322.6999460717705</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -33034,22 +33034,22 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>165.2255134509763</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33259,7 +33259,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33271,16 +33271,16 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>437.853104691376</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33496,7 +33496,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33511,19 +33511,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>750.6021172789107</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742439</v>
@@ -33733,16 +33733,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862122</v>
@@ -33751,16 +33751,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742439</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33970,7 +33970,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33979,10 +33979,10 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071786</v>
@@ -33991,7 +33991,7 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>334.7693860946154</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S41" t="n">
         <v>125.3175546292901</v>
@@ -34207,16 +34207,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862122</v>
@@ -34225,10 +34225,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>390.1398273256871</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34389,7 +34389,7 @@
         <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043726</v>
@@ -34444,7 +34444,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34462,10 +34462,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>391.925066926462</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35491,7 +35491,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35503,10 +35503,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P12" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35722,19 +35722,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997665</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35743,7 +35743,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>303.8786972770462</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36196,19 +36196,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238454</v>
@@ -36217,13 +36217,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>416.6233618831934</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36360,7 +36360,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367756</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
         <v>632.079992146269</v>
@@ -36448,19 +36448,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>191.3582339884371</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36682,22 +36682,22 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>31.25110603664601</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36919,16 +36919,16 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>303.8786972770457</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37159,19 +37159,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>619.2604051955774</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,16 +37399,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37466,7 +37466,7 @@
         <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.332588409638</v>
       </c>
       <c r="L37" t="n">
         <v>394.3420143191315</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,10 +37627,10 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238454</v>
@@ -37639,7 +37639,7 @@
         <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>200.7949786802852</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>261.348781916454</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37873,10 +37873,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38037,7 +38037,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902405</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38110,10 +38110,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2467494.499791462</v>
+        <v>2469255.030094246</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283181</v>
+        <v>416855.1052283182</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9287017.175673176</v>
+        <v>9287017.175673174</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>28.90798465780184</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396202</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>79.76470074482877</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -819,7 +819,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>127.4622584264324</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004737</v>
+        <v>19.58945082857479</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -907,10 +907,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>188.8108690340841</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -955,10 +955,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>58.92805047991983</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1068,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>299.4782125119762</v>
+        <v>134.0134608363815</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,19 +1186,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1299,13 +1299,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>77.31354443380461</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>71.67037196991755</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1426,7 +1426,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1536,16 +1536,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1587,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>109.723488288731</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>93.40444476188266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444144</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2010,16 +2010,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>1.79977260571659</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856552</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>108.3613954702483</v>
       </c>
     </row>
     <row r="20">
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444145</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2241,16 +2241,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>42.53134576113764</v>
       </c>
       <c r="T22" t="n">
-        <v>53.08838020946283</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2481,10 +2481,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1.79977260571659</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>35.41770597126747</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634824</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2715,16 +2715,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2769,10 +2769,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>140.2695301648962</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S31" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3085,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881294</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179931</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>214.0647808588585</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3432,19 +3432,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>18.7084378797731</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>71.79687029691394</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3559,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712593</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3912,10 +3912,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>55.52079624060473</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>254.4710728434511</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>84.53948348634594</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>921.7704558796247</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="C2" t="n">
-        <v>892.5704713767946</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D2" t="n">
-        <v>892.5704713767946</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>892.5704713767946</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>66.51211643218339</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
         <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794323</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450752</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919558</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943746</v>
+        <v>1617.939223126803</v>
       </c>
     </row>
     <row r="3">
@@ -4406,16 +4406,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158128</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4424,7 +4424,7 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
         <v>2407.41198488674</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>883.7244168749149</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C4" t="n">
-        <v>883.7244168749149</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>733.6077774625792</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>585.6946838801861</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>438.8047363822757</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
         <v>310.0549803959803</v>
@@ -4485,7 +4485,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.6347488791189</v>
@@ -4494,46 +4494,46 @@
         <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
         <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>1907.507224019225</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.46409084602</v>
+        <v>1715.821339846051</v>
       </c>
       <c r="T4" t="n">
-        <v>1837.46409084602</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="U4" t="n">
-        <v>1837.46409084602</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="V4" t="n">
-        <v>1582.779602640133</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="W4" t="n">
-        <v>1293.362432603172</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="X4" t="n">
-        <v>1065.372881705155</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y4" t="n">
-        <v>1065.372881705155</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2005.586939522201</v>
+        <v>1381.278680221567</v>
       </c>
       <c r="C5" t="n">
-        <v>1636.624422581789</v>
+        <v>1012.316163281155</v>
       </c>
       <c r="D5" t="n">
-        <v>1278.358723975039</v>
+        <v>654.050464674405</v>
       </c>
       <c r="E5" t="n">
-        <v>892.5704713767946</v>
+        <v>268.2622120761608</v>
       </c>
       <c r="F5" t="n">
-        <v>481.5845665871869</v>
+        <v>77.54416254678287</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4579,40 +4579,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136265</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W5" t="n">
-        <v>3155.791869823214</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X5" t="n">
-        <v>2782.326111562134</v>
+        <v>2158.017852261501</v>
       </c>
       <c r="Y5" t="n">
-        <v>2392.186779586323</v>
+        <v>1767.878520285689</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064544</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
         <v>160.189385922801</v>
@@ -4652,7 +4652,7 @@
         <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4664,34 +4664,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1091.613680441807</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
         <v>315.6219318279954</v>
@@ -4758,19 +4758,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088493</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V7" t="n">
-        <v>1927.294548088493</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W7" t="n">
-        <v>1722.044275313594</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X7" t="n">
-        <v>1494.054724415577</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y7" t="n">
-        <v>1273.262145272047</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="8">
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2232.598233480554</v>
+        <v>1767.87852028569</v>
       </c>
       <c r="C8" t="n">
-        <v>1863.635716540142</v>
+        <v>1398.916003345278</v>
       </c>
       <c r="D8" t="n">
-        <v>1505.370017933391</v>
+        <v>1040.650304738528</v>
       </c>
       <c r="E8" t="n">
-        <v>1119.581765335147</v>
+        <v>654.8620521402834</v>
       </c>
       <c r="F8" t="n">
-        <v>708.5958605455396</v>
+        <v>243.8761473506758</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4822,34 +4822,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520487</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W8" t="n">
-        <v>3009.337405520487</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X8" t="n">
-        <v>3009.337405520487</v>
+        <v>2158.017852261502</v>
       </c>
       <c r="Y8" t="n">
-        <v>2619.198073544675</v>
+        <v>1767.87852028569</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4889,46 +4889,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>463.6594280995014</v>
+        <v>752.7622949738584</v>
       </c>
       <c r="C10" t="n">
-        <v>294.7232451715945</v>
+        <v>583.8261120459515</v>
       </c>
       <c r="D10" t="n">
-        <v>144.6066057592588</v>
+        <v>433.7094726336157</v>
       </c>
       <c r="E10" t="n">
-        <v>66.5121164321834</v>
+        <v>285.7963790512226</v>
       </c>
       <c r="F10" t="n">
-        <v>66.5121164321834</v>
+        <v>138.9064315533123</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4995,19 +4995,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1638.191681214136</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1383.507193008249</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>1094.090022971289</v>
+        <v>1383.192889845646</v>
       </c>
       <c r="X10" t="n">
-        <v>866.1004720732712</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y10" t="n">
-        <v>645.3078929297411</v>
+        <v>934.4107598040981</v>
       </c>
     </row>
     <row r="11">
@@ -5029,22 +5029,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5062,7 +5062,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5123,16 +5123,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>724.7519863413023</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C13" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V13" t="n">
-        <v>1644.59975125005</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W13" t="n">
-        <v>1355.182581213089</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X13" t="n">
-        <v>1127.193030315072</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y13" t="n">
-        <v>906.400451171542</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5275,7 +5275,7 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
@@ -5354,22 +5354,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578603</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5494,37 +5494,37 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
@@ -5533,22 +5533,22 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5597,16 +5597,16 @@
         <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>806.8386896933887</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270447</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
@@ -5718,7 +5718,7 @@
         <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>806.8386896933887</v>
       </c>
     </row>
     <row r="20">
@@ -5731,46 +5731,46 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362694</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192542</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852256</v>
@@ -5782,10 +5782,10 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5840,10 +5840,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>929.7309773356194</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356194</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
         <v>484.8112968429802</v>
@@ -5934,28 +5934,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.963083580261</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T22" t="n">
-        <v>2393.338457106056</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U22" t="n">
-        <v>2104.263230450254</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V22" t="n">
-        <v>1849.578742244367</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W22" t="n">
-        <v>1560.161572207406</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>1332.172021309389</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>1111.379442165859</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5968,16 +5968,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5986,52 +5986,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>727.9786782557277</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>559.0424953278208</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>408.925855915485</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797189</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797189</v>
@@ -6171,28 +6171,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2411.187623003223</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2191.586158026164</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1902.510931370362</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1647.826443164475</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1358.409273127515</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1130.419722229497</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>909.6271430859674</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6214,64 +6214,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="27">
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6417,19 +6417,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1546.699459748751</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1257.28228971179</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>1029.292738813773</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>1029.292738813773</v>
       </c>
     </row>
     <row r="29">
@@ -6451,10 +6451,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6645,7 +6645,7 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
         <v>2254.869721166297</v>
@@ -6688,49 +6688,49 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803938</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782958</v>
@@ -6882,28 +6882,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="35">
@@ -6931,22 +6931,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
@@ -6955,13 +6955,13 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
         <v>4606.285157492578</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803938</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>727.9786782557277</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>559.0424953278208</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>408.925855915485</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E37" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038374</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797776</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910812</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570821</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279806</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580264</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580264</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235168</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2191.586158026164</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1902.510931370362</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1647.826443164475</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1358.409273127515</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1130.419722229497</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>909.6271430859674</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7262,10 +7262,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="41">
@@ -7387,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7502,10 +7502,10 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O42" t="n">
-        <v>2299.457522348532</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>763.7541388327652</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C43" t="n">
-        <v>594.8179559048583</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D43" t="n">
-        <v>444.7013164925226</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E43" t="n">
-        <v>296.7882229101294</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F43" t="n">
-        <v>149.8982754122191</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7602,19 +7602,19 @@
         <v>2227.361618603202</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.2863919474</v>
+        <v>1970.320130882545</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741513</v>
+        <v>1715.635642676658</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704552</v>
+        <v>1426.218472639697</v>
       </c>
       <c r="X43" t="n">
-        <v>1166.195182806535</v>
+        <v>1198.22892174168</v>
       </c>
       <c r="Y43" t="n">
-        <v>945.4026036630049</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>784.5811134804959</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1959.113366595131</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1704.428878389244</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1415.011708352283</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>1187.022157454266</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>966.2295783107356</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.388111847688833e-12</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23424,16 +23424,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>142.414155035097</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>72.11969353038619</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23898,16 +23898,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.4949402405073</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>110.2232578818465</v>
       </c>
     </row>
     <row r="20">
@@ -24129,16 +24129,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>138.4949402405069</v>
       </c>
       <c r="T22" t="n">
-        <v>164.3170701178254</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24369,10 +24369,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>145.6085800303771</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24603,16 +24603,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24657,10 +24657,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>111.8681131589318</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S31" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.22910392194173</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>72.11969353038563</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25320,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>127.7255247667961</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>145.6085800303743</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>72.11969353038532</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25800,10 +25800,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>110.0033420516641</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856552</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>31.71340154579309</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>201.6449909028982</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>799776.7579630148</v>
+        <v>799776.7579630147</v>
       </c>
     </row>
     <row r="9">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>799776.7579630148</v>
+        <v>799776.7579630147</v>
       </c>
     </row>
     <row r="14">
@@ -26316,46 +26316,46 @@
         <v>636307.3716448195</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448195</v>
+        <v>636307.3716448194</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448194</v>
+        <v>636307.371644819</v>
       </c>
       <c r="E2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="F2" t="n">
+        <v>625538.6147597551</v>
+      </c>
+      <c r="G2" t="n">
         <v>625538.6147597549</v>
       </c>
-      <c r="G2" t="n">
-        <v>625538.614759755</v>
-      </c>
       <c r="H2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="I2" t="n">
         <v>625538.6147597547</v>
       </c>
       <c r="J2" t="n">
-        <v>625538.6147597546</v>
+        <v>625538.614759755</v>
       </c>
       <c r="K2" t="n">
         <v>625538.6147597547</v>
       </c>
       <c r="L2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="M2" t="n">
         <v>625538.614759755</v>
       </c>
       <c r="N2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="O2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="P2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
     </row>
     <row r="3">
@@ -26368,19 +26368,19 @@
         <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>4.14093847211916e-10</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073549</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>2.394040286412866e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,37 +26417,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.84288319414</v>
+        <v>92793.84288319407</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.84288319407</v>
+        <v>92793.84288319404</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319405</v>
+        <v>92793.84288319401</v>
       </c>
       <c r="E4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="F4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="G4" t="n">
-        <v>13606.8081118427</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="H4" t="n">
-        <v>13606.80811184271</v>
+        <v>13606.80811184269</v>
       </c>
       <c r="I4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="J4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184266</v>
       </c>
       <c r="K4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="L4" t="n">
-        <v>13606.80811184271</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="M4" t="n">
         <v>13606.80811184275</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-893165.15752736</v>
+        <v>-893165.1575273603</v>
       </c>
       <c r="C6" t="n">
-        <v>435579.5882002317</v>
+        <v>435579.5882002318</v>
       </c>
       <c r="D6" t="n">
-        <v>435579.588200232</v>
+        <v>435579.5882002315</v>
       </c>
       <c r="E6" t="n">
-        <v>185049.435762293</v>
+        <v>185362.0770912141</v>
       </c>
       <c r="F6" t="n">
-        <v>510461.897569648</v>
+        <v>510774.5388985693</v>
       </c>
       <c r="G6" t="n">
-        <v>510461.8975696479</v>
+        <v>510774.5388985693</v>
       </c>
       <c r="H6" t="n">
-        <v>510461.8975696479</v>
+        <v>510774.5388985691</v>
       </c>
       <c r="I6" t="n">
-        <v>510461.8975696479</v>
+        <v>510774.5388985692</v>
       </c>
       <c r="J6" t="n">
-        <v>292930.6951723704</v>
+        <v>293243.336501292</v>
       </c>
       <c r="K6" t="n">
-        <v>510461.8975696479</v>
+        <v>510774.5388985693</v>
       </c>
       <c r="L6" t="n">
-        <v>510461.8975696479</v>
+        <v>510774.5388985691</v>
       </c>
       <c r="M6" t="n">
-        <v>425406.8696341364</v>
+        <v>425719.5109630576</v>
       </c>
       <c r="N6" t="n">
-        <v>510461.897569648</v>
+        <v>510774.5388985692</v>
       </c>
       <c r="O6" t="n">
-        <v>510461.8975696482</v>
+        <v>510774.5388985692</v>
       </c>
       <c r="P6" t="n">
-        <v>510461.897569648</v>
+        <v>510774.5388985692</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26819,10 +26819,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>2.992550358016083e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26962,19 +26962,19 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>2.992550358016083e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>336.3649071132057</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>306.4732379112248</v>
       </c>
     </row>
     <row r="3">
@@ -27539,7 +27539,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27551,7 +27551,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>38.5635498325958</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>69.34270184147255</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27627,10 +27627,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>218.0651767076273</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -27675,10 +27675,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>290.3129182374932</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27830,13 +27830,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>214.5414662356956</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>111.4435131414772</v>
+        <v>276.9082648170719</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27906,19 +27906,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28019,13 +28019,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>69.12041821276456</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>94.35543628911067</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28067,7 +28067,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28818,7 +28818,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>-7.897926874522848e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28854,7 +28854,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29274,7 +29274,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>-1.800799509510398e-12</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29805,7 +29805,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>-8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -30036,7 +30036,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30170,7 +30170,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>3.016490760880212e-12</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,37 +31120,37 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
@@ -31159,7 +31159,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31208,16 +31208,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
         <v>300.7247737883114</v>
@@ -31226,19 +31226,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780294</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31843,7 +31843,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31855,7 +31855,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,19 +32080,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>173.8200325543356</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32317,7 +32317,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>173.8200325543355</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473073</v>
@@ -32329,7 +32329,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32469,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067226</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32560,13 +32560,13 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>444.2274915982891</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32785,7 +32785,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33022,7 +33022,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33982,13 +33982,13 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>444.2274915982891</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
         <v>125.3175546292901</v>
@@ -34222,13 +34222,13 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O42" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>390.1398273256871</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882189</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306617</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35491,7 +35491,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35503,7 +35503,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>35.97859357997665</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35965,7 +35965,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>35.9785935799765</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.3288951674331</v>
@@ -35977,7 +35977,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236316704</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36208,13 +36208,13 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>302.0934576762708</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37466,7 +37466,7 @@
         <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409638</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
         <v>394.3420143191315</v>
@@ -37630,13 +37630,13 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>302.0934576762708</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37870,13 +37870,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>256.1654199113569</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
